--- a/outputs/sector_counts.xlsx
+++ b/outputs/sector_counts.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
